--- a/statistiche/bpic11RandomForestCounterfactualsWithMax_5/944.xlsx
+++ b/statistiche/bpic11RandomForestCounterfactualsWithMax_5/944.xlsx
@@ -458,967 +458,967 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>387070A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>378216A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>370737C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>370489S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AC380077</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC10207</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AC613000</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AC370606</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>370407C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AC386002</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AC370442</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>370707S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AC355401</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>376480A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>376482S</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AC410500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>AC370716</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>377498A</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AC378458</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>370111S</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>377121S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AC372441</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AC378858</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AC612000</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>370505A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>AC370423</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AC375075</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370129</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AC372417</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AC370415</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AC359999</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AC370443</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AC370403</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>370701S</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>339988E</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>AC337105</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>AC378607</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>370403S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AC379999</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370416</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>376487.0</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>AC355111</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>339099B</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>370737Z</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AC709999</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>370488S</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>AC387070</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>AC378449</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>370136A</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>370421S</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>372417S</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>337190C</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370440</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>339995C</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>370488J</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>AC386041</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>379000A</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>AC389190</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>370401S</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>AC710290</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>375003A</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>AC370421</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>AC372439</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>378858S</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>AC356132</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC355409</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AC370116</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AC410100</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AC413489</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AC411100</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337441</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>AC413461</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>389073.0</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>AC610001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>302282.0</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>370828A</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>AC387001</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>AC389102</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>AC388130</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>AC386001</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>AC355427</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>370401C</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>372440A</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>330001B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370424</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>AC370711</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>378452S</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>370737S</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>AC10107</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>376400.0</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AC370419</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC378546</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>370407.0</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>AC614400</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>AC375518</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>370443S</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>AC350507</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>AC390520</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>AC370135</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>370420S</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>370402S</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>375138A</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AC378720</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>378609S</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370437</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>AC337440</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AC378808</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>AC378729</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>372454A</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>370466C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>370480A</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>339171A</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>370715S</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AC378149</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AC355201</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>370715A</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>AC376406</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC337480</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>AC387090</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>376482C</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>AC387002</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>AC350503</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337220</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>AC355105</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>370488T</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>378609R</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC380000</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>370711S</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>386001Z</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>370501.0</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>370712B</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>378609K</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>337419C</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>AC40014</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>AC686405</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>AC415100</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC356134</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>370488G</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>AC375004</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>AC619600</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>370465Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>AC419100</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>370419S</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC20113</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AC372414</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>370423T</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>302211.0</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AC375005</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370111</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>AC337451</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>339488A</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>AC356133</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>302213E</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>370426S</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AC10213</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>370442S</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>AC378403</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370604</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>387042A</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>376425A</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>AC386042</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AC339160</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390183</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AC20189</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>AC390001</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>378453S</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>AC370420</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>AC370172</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AC378449</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>370423T</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>372417S</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AC378403</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AC10213</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>376482C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>AC378431</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>370488E</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>339486E</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>AC370000</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>AC388170</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>AC370401</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370402</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>370488H</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>AC390003</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>AC386902</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390004</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>AC337452</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>AC339956</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>AC710170</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>370504A</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370701</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>376467E</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>AC390550</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AC378452</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AC376406</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AC370423</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>387042A</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AC372441</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AC390520</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AC372439</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AC378458</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>AC40016</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>AC393628</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>370504A</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>370712B</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>387070A</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AC370000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>AC40014</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>AC415100</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>AC337480</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AC410100</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>AC337440</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>372454A</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AC390001</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AC337220</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>AC389102</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>AC378858</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>370737C</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>376467E</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>370488G</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AC386041</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>370737S</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>AC386902</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>370421S</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>AC710170</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>AC390004</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>372440A</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>370828A</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>AC386001</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>370715A</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>330001B</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>386001Z</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>378609R</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>AC355201</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>AC410500</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC386002</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>AC10307</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>378453A</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>AC10113</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370606</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>370465Q</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>370420S</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>376487.0</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>389073.0</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>AC380077</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>AC378546</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>AC370424</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC411100</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>370401S</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>339988E</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>AC378607</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>376482S</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>370419S</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>370488H</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>376425A</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>AC614400</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>378216A</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>AC387070</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>AC370129</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>AC375075</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>AC370443</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>AC378431</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>377498A</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC610001</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>AC390183</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370416</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>337190C</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>370111S</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>AC339956</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>302213E</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>AC355105</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>AC10207</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>302211.0</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC375005</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>370480A</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>AC355401</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>AC390550</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>AC370135</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>370488J</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>AC355427</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>378609S</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>AC387001</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>AC413461</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>AC337452</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>AC413489</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>AC389190</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>AC356132</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>339995C</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>AC370420</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC379999</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>AC337105</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>339486E</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>AC378808</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>370402S</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>370442S</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370716</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>AC337441</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>AC356133</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>AC359999</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370401</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>AC372414</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>AC370419</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>370701S</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>AC378149</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>370715S</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>AC370415</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378729</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>AC380000</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>302282.0</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>378452S</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>AC20189</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>370711S</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>AC350503</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>AC387090</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>AC355409</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>370501.0</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>AC370403</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>370466C</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>AC612000</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>AC355111</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>376480A</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370442</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>AC390003</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>378858S</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>AC20113</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378720</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>AC40016</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>339099B</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>AC388130</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>370505A</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>AC709999</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>370737Z</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>377121S</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>370488T</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>370403S</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>AC613000</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>AC339160</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>370407.0</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>AC388170</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>AC350507</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>337419C</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370111</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>370488S</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370437</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>370407C</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>370489S</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>378453S</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370421</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>AC370116</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>AC372417</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>AC356134</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC10307</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>370707S</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>AC375518</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>AC686405</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>379000A</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>AC370440</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>AC375004</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370604</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>AC619600</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>AC337451</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>AC370711</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>376400.0</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>370488E</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>AC386042</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>375138A</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>339171A</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>370443S</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>370426S</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>AC387002</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>370401C</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>AC370701</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>375003A</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>378453A</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>378609K</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>AC710290</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>AC10107</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>AC370402</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>339488A</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>370136A</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="2" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="GJ2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK2" s="2" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK3" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="2" t="n">
         <v>0</v>
@@ -2826,41 +2826,41 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BV4" s="2" t="n">
         <v>0</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="GJ4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK4" s="2" t="n">
         <v>0</v>
@@ -3343,20 +3343,20 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
         <v>1</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
@@ -3394,392 +3394,392 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
         <v>1</v>
       </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
         <v>1</v>
       </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
       <c r="FY5" t="n">
         <v>0</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="GJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK5" t="n">
         <v>0</v>
@@ -3851,116 +3851,116 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AN6" s="2" t="n">
         <v>0</v>
       </c>
@@ -4028,41 +4028,41 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BV6" s="2" t="n">
         <v>0</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="EO6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP6" s="2" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="GJ6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK6" s="2" t="n">
         <v>0</v>
@@ -4449,116 +4449,116 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
@@ -4626,41 +4626,41 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
         <v>1</v>
       </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
       <c r="BV7" t="n">
         <v>0</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP7" t="n">
         <v>0</v>
@@ -4938,53 +4938,53 @@
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
         <v>1</v>
       </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
       <c r="FZ7" t="n">
         <v>0</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="GJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK7" t="n">
         <v>0</v>
@@ -5053,416 +5053,416 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="n">
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="2" t="n">
+      <c r="BV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EJ8" s="2" t="n">
         <v>0</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="EO8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP8" s="2" t="n">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="GJ8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK8" s="2" t="n">
         <v>0</v>
@@ -5657,434 +5657,434 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Z9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="2" t="n">
+      <c r="EJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="EP9" s="2" t="n">
         <v>0</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="GJ9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK9" s="2" t="n">
         <v>0</v>
